--- a/SchedulingData/static1/pso/scheduling1_13.xlsx
+++ b/SchedulingData/static1/pso/scheduling1_13.xlsx
@@ -462,64 +462,64 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>95.09999999999999</v>
+        <v>36.48</v>
       </c>
       <c r="E2" t="n">
-        <v>26.64</v>
+        <v>27.052</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>36.48</v>
       </c>
       <c r="D3" t="n">
-        <v>39.12</v>
+        <v>100.98</v>
       </c>
       <c r="E3" t="n">
-        <v>26.788</v>
+        <v>23.692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>58.62</v>
+        <v>83.52</v>
       </c>
       <c r="E4" t="n">
-        <v>26.308</v>
+        <v>26.788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -538,59 +538,59 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>68.52</v>
+        <v>58.62</v>
       </c>
       <c r="E6" t="n">
-        <v>26.788</v>
+        <v>26.308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>65.81999999999999</v>
+        <v>39.12</v>
       </c>
       <c r="E7" t="n">
-        <v>26.568</v>
+        <v>26.788</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>88.88</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>23.932</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="9">
